--- a/autoregress.xlsx
+++ b/autoregress.xlsx
@@ -2,116 +2,238 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\regresstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1BCFC1-7D52-494D-BA77-2476BEDC6564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3137D425-F7F9-4194-95D3-378562F6179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="37890" windowHeight="20160" xr2:uid="{D0A4BEA5-8E38-49C5-9996-A91B78F712D7}"/>
+    <workbookView xWindow="5070" yWindow="1200" windowWidth="37665" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="69">
   <si>
     <t>id задачи</t>
   </si>
   <si>
+    <t>"method":</t>
+  </si>
+  <si>
+    <t>"top_dimensions_number":</t>
+  </si>
+  <si>
+    <t>"max_depth":</t>
+  </si>
+  <si>
+    <t>"metric":</t>
+  </si>
+  <si>
+    <t>"set_name":</t>
+  </si>
+  <si>
+    <t>"time_case":</t>
+  </si>
+  <si>
+    <t>"how_start":</t>
+  </si>
+  <si>
+    <t>"run_tests":</t>
+  </si>
+  <si>
+    <t>Эталонные образцы:</t>
+  </si>
+  <si>
+    <t>Новые отчеты:</t>
+  </si>
+  <si>
+    <t>Процент совпадения:</t>
+  </si>
+  <si>
     <t>"Искать проблемные зоны"</t>
   </si>
   <si>
+    <t>"conversion_rate"</t>
+  </si>
+  <si>
+    <t>"Сет параметров 1"</t>
+  </si>
+  <si>
+    <t>[{"from":"2025-08-09","to":"2025-10-07"}]</t>
+  </si>
+  <si>
+    <t>"В реальном времени"</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21244</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21245</t>
+  </si>
+  <si>
+    <t>[{"from":"2025-09-01","to":"2025-09-22"},{"from":"2025-08-01","to":"2025-08-22"}]</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21246</t>
+  </si>
+  <si>
+    <t>"Искать точки роста"</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21247</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21248</t>
+  </si>
+  <si>
     <t>"EXTRA_dAXPolzovateliDostigshieCeliKlikPoKnopkeRegistraciya_metric_194"</t>
   </si>
   <si>
     <t>"Веб-аналитика 📈"</t>
   </si>
   <si>
-    <t>[{"from":"2025-09-01","to":"2025-09-22"},{"from":"2025-08-01","to":"2025-08-22"}]</t>
-  </si>
-  <si>
-    <t>"В реальном времени"</t>
-  </si>
-  <si>
-    <t>"top_dimensions_number":</t>
-  </si>
-  <si>
-    <t>"max_depth":</t>
-  </si>
-  <si>
-    <t>"metric":</t>
-  </si>
-  <si>
-    <t>"set_name":</t>
-  </si>
-  <si>
-    <t>"time_case":</t>
-  </si>
-  <si>
-    <t>"how_start":</t>
-  </si>
-  <si>
-    <t>"method":</t>
-  </si>
-  <si>
-    <t>"run_tests":</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/20816</t>
-  </si>
-  <si>
-    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/20817</t>
-  </si>
-  <si>
-    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/20818</t>
-  </si>
-  <si>
-    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/20819</t>
-  </si>
-  <si>
-    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/20820</t>
-  </si>
-  <si>
-    <t>Новые отчеты:</t>
-  </si>
-  <si>
-    <t>Процент совпадения:</t>
-  </si>
-  <si>
-    <t>Эталонные образцы:</t>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21249</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21250</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21251</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21252</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21253</t>
+  </si>
+  <si>
+    <t>[{"from":"2025-09-01","to":"2025-09-30"}]</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21254</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21255</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21256</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21257</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21258</t>
+  </si>
+  <si>
+    <t>"Шаги по страницам +Last 🐾"</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21259</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21260</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21261</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21262</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21263</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21264</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21265</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21266</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21267</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21268</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21269</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21270</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21271</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21272</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21273</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21274</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21275</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21276</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21277</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21278</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21279</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21280</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21281</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21282</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21283</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21284</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21285</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21286</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21287</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21288</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,11 +243,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <sz val="9"/>
+      <color rgb="FF001F24"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF97A8C8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,8 +277,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92E650C-BEEF-42FE-B7C0-7334AB6F1DD7}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +626,8 @@
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="71.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
@@ -509,201 +641,1480 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1611</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1476</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1477</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1478</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1479</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1480</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1476</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1477</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1478</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1479</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1480</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1476</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1477</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1478</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1479</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1480</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1476</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1477</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1478</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1479</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1480</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1476</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1477</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1478</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1479</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1480</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1476</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1477</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1478</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1479</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1480</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1476</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1477</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1478</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1479</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1480</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1476</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1477</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1478</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1479</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1480</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/autoregress.xlsx
+++ b/autoregress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\regresstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9310A5D-32C6-4EAB-B2FD-E753DF17C38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911D6347-428F-498B-BF88-5EBDB9B86362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="210" windowWidth="43095" windowHeight="20655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="300" windowWidth="46005" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
   <si>
     <t>id задачи</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21461</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/21904</t>
+  </si>
+  <si>
+    <t>https://dev2-cloud.smartanalytics.io/ru/#!/index/39/reports/14/22007</t>
+  </si>
+  <si>
+    <t>совпадение 0.026581605528973953%).</t>
+  </si>
+  <si>
+    <t>простой  пос без груп версия для автотеста(не трогать)</t>
   </si>
 </sst>
 </file>
@@ -670,10 +682,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1024,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1612</v>
+        <v>1641</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1027,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
@@ -1039,15 +1051,21 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1611</v>
+        <v>1641</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1062,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
@@ -1074,10 +1092,16 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>87</v>
+      </c>
+      <c r="K11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1088,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1100,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -1109,7 +1133,7 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
         <v>36</v>
@@ -1117,10 +1141,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1144,10 +1168,10 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1155,7 +1179,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1179,33 +1203,33 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1476</v>
+      <c r="A15" s="2">
+        <v>1612</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -1214,30 +1238,30 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1477</v>
+      <c r="A16" s="2">
+        <v>1612</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
@@ -1249,15 +1273,15 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1284,15 +1308,15 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1319,15 +1343,15 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1354,15 +1378,15 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1380,7 +1404,7 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -1389,12 +1413,15 @@
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1412,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -1421,12 +1448,15 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1453,12 +1483,12 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1485,12 +1515,12 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1517,12 +1547,12 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1536,11 +1566,11 @@
       <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
+      <c r="F25" t="s">
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -1549,12 +1579,12 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1568,11 +1598,11 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>22</v>
+      <c r="F26" t="s">
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1581,12 +1611,12 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1613,12 +1643,12 @@
         <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1645,12 +1675,12 @@
         <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1677,12 +1707,12 @@
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1700,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -1709,12 +1739,12 @@
         <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1732,7 +1762,7 @@
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -1741,12 +1771,12 @@
         <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1773,12 +1803,12 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1805,12 +1835,12 @@
         <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1837,15 +1867,15 @@
         <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1856,11 +1886,11 @@
       <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
-        <v>14</v>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -1869,15 +1899,15 @@
         <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1888,11 +1918,11 @@
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36" t="s">
-        <v>14</v>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -1901,12 +1931,12 @@
         <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -1933,12 +1963,12 @@
         <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -1965,12 +1995,12 @@
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -1997,12 +2027,12 @@
         <v>17</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -2020,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -2029,12 +2059,12 @@
         <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -2052,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -2061,12 +2091,12 @@
         <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -2093,12 +2123,12 @@
         <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -2125,12 +2155,12 @@
         <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -2157,12 +2187,12 @@
         <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -2176,11 +2206,11 @@
       <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>22</v>
+      <c r="F45" t="s">
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
@@ -2189,12 +2219,12 @@
         <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -2208,11 +2238,11 @@
       <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>22</v>
+      <c r="F46" t="s">
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -2221,12 +2251,12 @@
         <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -2253,12 +2283,12 @@
         <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -2285,12 +2315,12 @@
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -2317,12 +2347,12 @@
         <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -2340,7 +2370,7 @@
         <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -2349,12 +2379,12 @@
         <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -2372,7 +2402,7 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
@@ -2381,12 +2411,12 @@
         <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -2413,12 +2443,12 @@
         <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -2445,12 +2475,12 @@
         <v>17</v>
       </c>
       <c r="J53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -2477,6 +2507,70 @@
         <v>17</v>
       </c>
       <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1479</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1480</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
         <v>86</v>
       </c>
     </row>
